--- a/terraform commands.xlsx
+++ b/terraform commands.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\microsoft azure cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\terraform commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>commands</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>it show all details or information about the resources which are created in the aws portal in human readable formate.</t>
+  </si>
+  <si>
+    <t>harish</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,6 +793,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
